--- a/pIRPgym/Blocks/InstanceGeneration/LCA indicators.xlsx
+++ b/pIRPgym/Blocks/InstanceGeneration/LCA indicators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84e5504c0bf5b5c0/Documentos/pIRPgym/pIRPgym/Blocks/InstanceGeneration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{0559A1DF-3114-4080-916E-CC8E180C642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F7CAD3F-6FBB-492E-8C0E-E5738CD87CBB}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{0559A1DF-3114-4080-916E-CC8E180C642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7226B8B-9151-4C2A-A297-3A3E2B19A176}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{966A59D5-22B3-4D76-89C6-37022AA61F13}"/>
   </bookViews>
@@ -107,6 +107,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,8 +139,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,11 +463,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -496,104 +496,104 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <v>26.85463</v>
-      </c>
-      <c r="C2">
-        <v>23.97664</v>
-      </c>
-      <c r="D2">
-        <v>11.691409999999999</v>
-      </c>
-      <c r="E2">
-        <v>26.243580000000001</v>
-      </c>
-      <c r="F2">
-        <v>254.82164</v>
-      </c>
-      <c r="G2">
-        <v>17.50543</v>
-      </c>
-      <c r="H2">
-        <v>20.794350000000001</v>
+      <c r="B2" s="1">
+        <v>1.6289403146425041E-4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.6289403146425041E-4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.6289403146425041E-4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.6289403146425041E-4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.6289403146425041E-4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.6289403146425041E-4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.6289403146425041E-4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3">
-        <v>3.4036499999999998</v>
-      </c>
-      <c r="C3">
-        <v>2.7063600000000001</v>
-      </c>
-      <c r="D3">
-        <v>1.2703800000000001</v>
-      </c>
-      <c r="E3">
-        <v>2.8518599999999998</v>
-      </c>
-      <c r="F3">
-        <v>5.5827099999999996</v>
-      </c>
-      <c r="G3">
-        <v>2.1358299999999999</v>
-      </c>
-      <c r="H3">
-        <v>1.3577699999999999</v>
+      <c r="B3" s="1">
+        <v>1.6636544770085805E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.6636544770085805E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.6636544770085805E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.6636544770085805E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.6636544770085805E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.6636544770085805E-3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.6636544770085805E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
-        <v>17.71959</v>
-      </c>
-      <c r="C4">
-        <v>12.45548</v>
-      </c>
-      <c r="D4">
-        <v>6.2286000000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.54839000000000004</v>
-      </c>
-      <c r="F4">
-        <v>28.29344</v>
-      </c>
-      <c r="G4">
-        <v>1.00482</v>
-      </c>
-      <c r="H4">
-        <v>11.877890000000001</v>
+      <c r="B4" s="1">
+        <v>2.4882965588988002E-3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.4882965588988002E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.4882965588988002E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.4882965588988002E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.4882965588988002E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.4882965588988002E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.4882965588988002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
-        <v>0.29197000000000001</v>
-      </c>
-      <c r="C5">
-        <v>0.19161</v>
-      </c>
-      <c r="D5">
-        <v>6.1260000000000002E-2</v>
-      </c>
-      <c r="E5">
-        <v>0.33409</v>
-      </c>
-      <c r="F5">
-        <v>0.42962</v>
-      </c>
-      <c r="G5">
-        <v>0.22922999999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.12232999999999999</v>
+      <c r="B5" s="1">
+        <v>1.7039553845207639E-5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.7039553845207639E-5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.7039553845207639E-5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.7039553845207639E-5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.7039553845207639E-5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.7039553845207639E-5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.7039553845207639E-5</v>
       </c>
     </row>
   </sheetData>
@@ -605,18 +605,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD37F98B-C618-4AB5-A72A-43BC79B5A72A}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -650,25 +644,25 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.22922999999999999</v>
+        <v>1.0087330004909483E-2</v>
       </c>
       <c r="C2">
-        <v>0.42962</v>
+        <v>1.0087330004909483E-2</v>
       </c>
       <c r="D2">
-        <v>0.29197000000000001</v>
+        <v>1.0087330004909483E-2</v>
       </c>
       <c r="E2">
-        <v>0.12232999999999999</v>
+        <v>1.0087330004909483E-2</v>
       </c>
       <c r="F2">
-        <v>0.19161</v>
+        <v>1.0087330004909483E-2</v>
       </c>
       <c r="G2">
-        <v>6.1260000000000002E-2</v>
+        <v>1.0087330004909483E-2</v>
       </c>
       <c r="H2">
-        <v>0.33409</v>
+        <v>1.0087330004909483E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -676,25 +670,25 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>17.50543</v>
+        <v>6.9546481816626111E-3</v>
       </c>
       <c r="C3">
-        <v>254.82164</v>
+        <v>6.9546481816626111E-3</v>
       </c>
       <c r="D3">
-        <v>26.85463</v>
+        <v>6.9546481816626111E-3</v>
       </c>
       <c r="E3">
-        <v>20.794350000000001</v>
+        <v>6.9546481816626111E-3</v>
       </c>
       <c r="F3">
-        <v>23.97664</v>
+        <v>6.9546481816626111E-3</v>
       </c>
       <c r="G3">
-        <v>11.691409999999999</v>
+        <v>6.9546481816626111E-3</v>
       </c>
       <c r="H3">
-        <v>26.243580000000001</v>
+        <v>6.9546481816626111E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -702,25 +696,25 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>2.1358299999999999</v>
+        <v>0.26812842439827289</v>
       </c>
       <c r="C4">
-        <v>5.5827099999999996</v>
+        <v>0.26812842439827289</v>
       </c>
       <c r="D4">
-        <v>3.4036499999999998</v>
+        <v>0.26812842439827289</v>
       </c>
       <c r="E4">
-        <v>1.3577699999999999</v>
+        <v>0.26812842439827289</v>
       </c>
       <c r="F4">
-        <v>2.7063600000000001</v>
+        <v>0.26812842439827289</v>
       </c>
       <c r="G4">
-        <v>1.2703800000000001</v>
+        <v>0.26812842439827289</v>
       </c>
       <c r="H4">
-        <v>2.8518599999999998</v>
+        <v>0.26812842439827289</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -728,25 +722,25 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>1.00482</v>
+        <v>1.4005394041990032E-3</v>
       </c>
       <c r="C5">
-        <v>28.29344</v>
+        <v>1.4005394041990032E-3</v>
       </c>
       <c r="D5">
-        <v>17.71959</v>
+        <v>1.4005394041990032E-3</v>
       </c>
       <c r="E5">
-        <v>11.877890000000001</v>
+        <v>1.4005394041990032E-3</v>
       </c>
       <c r="F5">
-        <v>12.45548</v>
+        <v>1.4005394041990032E-3</v>
       </c>
       <c r="G5">
-        <v>6.2286000000000001</v>
+        <v>1.4005394041990032E-3</v>
       </c>
       <c r="H5">
-        <v>0.54839000000000004</v>
+        <v>1.4005394041990032E-3</v>
       </c>
     </row>
   </sheetData>

--- a/pIRPgym/Blocks/InstanceGeneration/LCA indicators.xlsx
+++ b/pIRPgym/Blocks/InstanceGeneration/LCA indicators.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84e5504c0bf5b5c0/Documentos/pIRPgym/pIRPgym/Blocks/InstanceGeneration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_rojasa55_uniandes_edu_co/Documents/Escritorio/pIRPgym/pIRPgym/Blocks/InstanceGeneration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{0559A1DF-3114-4080-916E-CC8E180C642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7226B8B-9151-4C2A-A297-3A3E2B19A176}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{0559A1DF-3114-4080-916E-CC8E180C642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ED49FC9-EBA8-4AF2-9645-66ECE71EB3D8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{966A59D5-22B3-4D76-89C6-37022AA61F13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{966A59D5-22B3-4D76-89C6-37022AA61F13}"/>
   </bookViews>
   <sheets>
     <sheet name="Transport" sheetId="2" r:id="rId1"/>
     <sheet name="Storage" sheetId="3" r:id="rId2"/>
-    <sheet name="raw" sheetId="1" r:id="rId3"/>
+    <sheet name="Waste" sheetId="4" r:id="rId3"/>
+    <sheet name="raw" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Impact categories</t>
   </si>
@@ -458,15 +459,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBFBBFB-5E52-436D-B1E8-DC7BF71AFF5E}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -518,7 +519,7 @@
         <v>1.6289403146425041E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -544,7 +545,7 @@
         <v>1.6636544770085805E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -570,7 +571,7 @@
         <v>2.4882965588988002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -605,15 +606,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD37F98B-C618-4AB5-A72A-43BC79B5A72A}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -665,7 +668,7 @@
         <v>1.0087330004909483E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -691,7 +694,7 @@
         <v>6.9546481816626111E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -717,7 +720,7 @@
         <v>0.26812842439827289</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -749,25 +752,173 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDA677F-F964-4D91-A217-2E1493AF347E}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>0.22922999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.42962</v>
+      </c>
+      <c r="D2">
+        <v>0.29197000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.12232999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.19161</v>
+      </c>
+      <c r="G2">
+        <v>6.1260000000000002E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.33409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>17.149339999999999</v>
+      </c>
+      <c r="C3">
+        <v>254.74134000000001</v>
+      </c>
+      <c r="D3">
+        <v>26.571349999999999</v>
+      </c>
+      <c r="E3">
+        <v>20.192340000000002</v>
+      </c>
+      <c r="F3">
+        <v>23.83098</v>
+      </c>
+      <c r="G3">
+        <v>11.619719999999999</v>
+      </c>
+      <c r="H3">
+        <v>26.04006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>2.1358299999999999</v>
+      </c>
+      <c r="C4">
+        <v>5.5827099999999996</v>
+      </c>
+      <c r="D4">
+        <v>3.4036499999999998</v>
+      </c>
+      <c r="E4">
+        <v>1.3577699999999999</v>
+      </c>
+      <c r="F4">
+        <v>2.7063600000000001</v>
+      </c>
+      <c r="G4">
+        <v>1.2703800000000001</v>
+      </c>
+      <c r="H4">
+        <v>2.8518599999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1.00482</v>
+      </c>
+      <c r="C5">
+        <v>28.29344</v>
+      </c>
+      <c r="D5">
+        <v>17.71959</v>
+      </c>
+      <c r="E5">
+        <v>11.877890000000001</v>
+      </c>
+      <c r="F5">
+        <v>12.45548</v>
+      </c>
+      <c r="G5">
+        <v>6.2286000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.54839000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D7F3AB-E5D5-4506-9172-2F123FF03079}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -825,7 +976,7 @@
         <v>0.33409</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -854,7 +1005,7 @@
         <v>26.243580000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -883,7 +1034,7 @@
         <v>2.8518599999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>

--- a/pIRPgym/Blocks/InstanceGeneration/LCA indicators.xlsx
+++ b/pIRPgym/Blocks/InstanceGeneration/LCA indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_rojasa55_uniandes_edu_co/Documents/Escritorio/pIRPgym/pIRPgym/Blocks/InstanceGeneration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{0559A1DF-3114-4080-916E-CC8E180C642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ED49FC9-EBA8-4AF2-9645-66ECE71EB3D8}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{0559A1DF-3114-4080-916E-CC8E180C642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{041D92BD-8E86-413D-8267-BC55261B5229}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{966A59D5-22B3-4D76-89C6-37022AA61F13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{966A59D5-22B3-4D76-89C6-37022AA61F13}"/>
   </bookViews>
   <sheets>
     <sheet name="Transport" sheetId="2" r:id="rId1"/>
@@ -108,10 +108,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,15 +145,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -459,7 +470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBFBBFB-5E52-436D-B1E8-DC7BF71AFF5E}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -607,7 +620,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDA677F-F964-4D91-A217-2E1493AF347E}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,10 +914,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D7F3AB-E5D5-4506-9172-2F123FF03079}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,6 +1076,38 @@
         <v>0.54839000000000004</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pIRPgym/Blocks/InstanceGeneration/LCA indicators.xlsx
+++ b/pIRPgym/Blocks/InstanceGeneration/LCA indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_rojasa55_uniandes_edu_co/Documents/Escritorio/pIRPgym/pIRPgym/Blocks/InstanceGeneration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{0559A1DF-3114-4080-916E-CC8E180C642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{041D92BD-8E86-413D-8267-BC55261B5229}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{0559A1DF-3114-4080-916E-CC8E180C642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67F363A-D214-4FC8-8042-8DAB22B5A835}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{966A59D5-22B3-4D76-89C6-37022AA61F13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{966A59D5-22B3-4D76-89C6-37022AA61F13}"/>
   </bookViews>
   <sheets>
     <sheet name="Transport" sheetId="2" r:id="rId1"/>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDA677F-F964-4D91-A217-2E1493AF347E}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,16 +811,16 @@
         <v>0.22922999999999999</v>
       </c>
       <c r="C2">
+        <v>0.12232999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.19161</v>
+      </c>
+      <c r="E2">
         <v>0.42962</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>0.29197000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.12232999999999999</v>
-      </c>
-      <c r="F2">
-        <v>0.19161</v>
       </c>
       <c r="G2">
         <v>6.1260000000000002E-2</v>
@@ -834,25 +834,25 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>17.149339999999999</v>
+        <v>17.50543</v>
       </c>
       <c r="C3">
-        <v>254.74134000000001</v>
+        <v>20.794350000000001</v>
       </c>
       <c r="D3">
-        <v>26.571349999999999</v>
+        <v>23.97664</v>
       </c>
       <c r="E3">
-        <v>20.192340000000002</v>
+        <v>254.82164</v>
       </c>
       <c r="F3">
-        <v>23.83098</v>
+        <v>26.85463</v>
       </c>
       <c r="G3">
-        <v>11.619719999999999</v>
+        <v>11.691409999999999</v>
       </c>
       <c r="H3">
-        <v>26.04006</v>
+        <v>26.243580000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -863,16 +863,16 @@
         <v>2.1358299999999999</v>
       </c>
       <c r="C4">
+        <v>1.3577699999999999</v>
+      </c>
+      <c r="D4">
+        <v>2.7063600000000001</v>
+      </c>
+      <c r="E4">
         <v>5.5827099999999996</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>3.4036499999999998</v>
-      </c>
-      <c r="E4">
-        <v>1.3577699999999999</v>
-      </c>
-      <c r="F4">
-        <v>2.7063600000000001</v>
       </c>
       <c r="G4">
         <v>1.2703800000000001</v>
@@ -889,16 +889,16 @@
         <v>1.00482</v>
       </c>
       <c r="C5">
+        <v>11.877890000000001</v>
+      </c>
+      <c r="D5">
+        <v>12.45548</v>
+      </c>
+      <c r="E5">
         <v>28.29344</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>17.71959</v>
-      </c>
-      <c r="E5">
-        <v>11.877890000000001</v>
-      </c>
-      <c r="F5">
-        <v>12.45548</v>
       </c>
       <c r="G5">
         <v>6.2286000000000001</v>
@@ -916,18 +916,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D7F3AB-E5D5-4506-9172-2F123FF03079}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -942,16 +942,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -971,16 +971,16 @@
         <v>0.22922999999999999</v>
       </c>
       <c r="D2">
+        <v>0.12232999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.19161</v>
+      </c>
+      <c r="F2">
         <v>0.42962</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.29197000000000001</v>
-      </c>
-      <c r="F2">
-        <v>0.12232999999999999</v>
-      </c>
-      <c r="G2">
-        <v>0.19161</v>
       </c>
       <c r="H2">
         <v>6.1260000000000002E-2</v>
@@ -1000,16 +1000,16 @@
         <v>17.50543</v>
       </c>
       <c r="D3">
+        <v>20.794350000000001</v>
+      </c>
+      <c r="E3">
+        <v>23.97664</v>
+      </c>
+      <c r="F3">
         <v>254.82164</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>26.85463</v>
-      </c>
-      <c r="F3">
-        <v>20.794350000000001</v>
-      </c>
-      <c r="G3">
-        <v>23.97664</v>
       </c>
       <c r="H3">
         <v>11.691409999999999</v>
@@ -1029,16 +1029,16 @@
         <v>2.1358299999999999</v>
       </c>
       <c r="D4">
+        <v>1.3577699999999999</v>
+      </c>
+      <c r="E4">
+        <v>2.7063600000000001</v>
+      </c>
+      <c r="F4">
         <v>5.5827099999999996</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>3.4036499999999998</v>
-      </c>
-      <c r="F4">
-        <v>1.3577699999999999</v>
-      </c>
-      <c r="G4">
-        <v>2.7063600000000001</v>
       </c>
       <c r="H4">
         <v>1.2703800000000001</v>
@@ -1058,16 +1058,16 @@
         <v>1.00482</v>
       </c>
       <c r="D5">
+        <v>11.877890000000001</v>
+      </c>
+      <c r="E5">
+        <v>12.45548</v>
+      </c>
+      <c r="F5">
         <v>28.29344</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>17.71959</v>
-      </c>
-      <c r="F5">
-        <v>11.877890000000001</v>
-      </c>
-      <c r="G5">
-        <v>12.45548</v>
       </c>
       <c r="H5">
         <v>6.2286000000000001</v>

--- a/pIRPgym/Blocks/InstanceGeneration/LCA indicators.xlsx
+++ b/pIRPgym/Blocks/InstanceGeneration/LCA indicators.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_rojasa55_uniandes_edu_co/Documents/Escritorio/pIRPgym/pIRPgym/Blocks/InstanceGeneration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{0559A1DF-3114-4080-916E-CC8E180C642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67F363A-D214-4FC8-8042-8DAB22B5A835}"/>
+  <xr:revisionPtr revIDLastSave="370" documentId="8_{0559A1DF-3114-4080-916E-CC8E180C642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8596AD90-5D80-4B18-B8CA-ECAFB900E0CC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{966A59D5-22B3-4D76-89C6-37022AA61F13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{966A59D5-22B3-4D76-89C6-37022AA61F13}"/>
   </bookViews>
   <sheets>
     <sheet name="Transport" sheetId="2" r:id="rId1"/>
     <sheet name="Storage" sheetId="3" r:id="rId2"/>
     <sheet name="Waste" sheetId="4" r:id="rId3"/>
-    <sheet name="raw" sheetId="1" r:id="rId4"/>
+    <sheet name="Transp Raw" sheetId="5" r:id="rId4"/>
+    <sheet name="Storage Raw" sheetId="7" r:id="rId5"/>
+    <sheet name="Waste Raw" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="47">
   <si>
     <t>Impact categories</t>
   </si>
@@ -102,24 +104,99 @@
   </si>
   <si>
     <t>water</t>
+  </si>
+  <si>
+    <t>Acidification</t>
+  </si>
+  <si>
+    <t>mol H+ eq</t>
+  </si>
+  <si>
+    <t>Ecotoxicity, freshwater</t>
+  </si>
+  <si>
+    <t>CTUe</t>
+  </si>
+  <si>
+    <t>Eutrophication, freshwater</t>
+  </si>
+  <si>
+    <t>kg P eq</t>
+  </si>
+  <si>
+    <t>Eutrophication, marine</t>
+  </si>
+  <si>
+    <t>kg N eq</t>
+  </si>
+  <si>
+    <t>Eutrophication, terrestrial</t>
+  </si>
+  <si>
+    <t>mol N eq</t>
+  </si>
+  <si>
+    <t>Human toxicity, cancer</t>
+  </si>
+  <si>
+    <t>CTUh</t>
+  </si>
+  <si>
+    <t>Human toxicity, non-cancer</t>
+  </si>
+  <si>
+    <t>Ionising radiation</t>
+  </si>
+  <si>
+    <t>kBq U-235 eq</t>
+  </si>
+  <si>
+    <t>Ozone depletion</t>
+  </si>
+  <si>
+    <t>kg CFC11 eq</t>
+  </si>
+  <si>
+    <t>Particulate matter</t>
+  </si>
+  <si>
+    <t>disease inc.</t>
+  </si>
+  <si>
+    <t>Photochemical ozone formation</t>
+  </si>
+  <si>
+    <t>kg NMVOC eq</t>
+  </si>
+  <si>
+    <t>Resource use, minerals and metals</t>
+  </si>
+  <si>
+    <t>kg Sb eq</t>
+  </si>
+  <si>
+    <t>acidification</t>
+  </si>
+  <si>
+    <t>eutrophication</t>
+  </si>
+  <si>
+    <t>ozone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000000000000000000"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="183" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="184" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="186" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="187" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="188" formatCode="0.000000000000000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,18 +222,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -169,6 +249,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,19 +552,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBFBBFB-5E52-436D-B1E8-DC7BF71AFF5E}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -532,7 +617,7 @@
         <v>1.6289403146425041E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -558,7 +643,7 @@
         <v>1.6636544770085805E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -584,7 +669,7 @@
         <v>2.4882965588988002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -609,6 +694,190 @@
       <c r="H5" s="1">
         <v>1.7039553845207639E-5</v>
       </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4.6862362926810144E-7</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4.6862362926810144E-7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4.6862362926810144E-7</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.6862362926810144E-7</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4.6862362926810144E-7</v>
+      </c>
+      <c r="G6" s="7">
+        <v>4.6862362926810144E-7</v>
+      </c>
+      <c r="H6" s="7">
+        <v>4.6862362926810144E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7">
+        <v>9.9828243233683223E-7</v>
+      </c>
+      <c r="C7" s="7">
+        <v>9.9828243233683223E-7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9.9828243233683223E-7</v>
+      </c>
+      <c r="E7" s="7">
+        <v>9.9828243233683223E-7</v>
+      </c>
+      <c r="F7" s="7">
+        <v>9.9828243233683223E-7</v>
+      </c>
+      <c r="G7" s="7">
+        <v>9.9828243233683223E-7</v>
+      </c>
+      <c r="H7" s="7">
+        <v>9.9828243233683223E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3.7935746814927013E-7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3.7935746814927013E-7</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3.7935746814927013E-7</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.7935746814927013E-7</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3.7935746814927013E-7</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3.7935746814927013E-7</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3.7935746814927013E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -617,16 +886,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD37F98B-C618-4AB5-A72A-43BC79B5A72A}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -659,25 +929,25 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>1.0087330004909483E-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>1.0087330004909483E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>1.0087330004909483E-2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>1.0087330004909483E-2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>1.0087330004909483E-2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>1.0087330004909483E-2</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>1.0087330004909483E-2</v>
       </c>
     </row>
@@ -711,25 +981,25 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>0.26812842439827289</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.26812842439827289</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.26812842439827289</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0.26812842439827289</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.26812842439827289</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>0.26812842439827289</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>0.26812842439827289</v>
       </c>
     </row>
@@ -737,26 +1007,104 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>1.4005394041990032E-3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>1.4005394041990032E-3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>1.4005394041990032E-3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>1.4005394041990032E-3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>1.4005394041990032E-3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>1.4005394041990032E-3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>1.4005394041990032E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.5413234691091739E-5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.5413234691091739E-5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.5413234691091739E-5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.5413234691091739E-5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.5413234691091739E-5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.5413234691091739E-5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.5413234691091739E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.1020984303597577E-5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.1020984303597577E-5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.1020984303597577E-5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.1020984303597577E-5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.1020984303597577E-5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.1020984303597577E-5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.1020984303597577E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.1040587952367025E-5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.1040587952367025E-5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.1040587952367025E-5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.1040587952367025E-5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.1040587952367025E-5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.1040587952367025E-5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.1040587952367025E-5</v>
       </c>
     </row>
   </sheetData>
@@ -766,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDA677F-F964-4D91-A217-2E1493AF347E}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,13 +1165,13 @@
         <v>0.19161</v>
       </c>
       <c r="E2">
+        <v>0.29197000000000001</v>
+      </c>
+      <c r="F2">
+        <v>6.1260000000000002E-2</v>
+      </c>
+      <c r="G2">
         <v>0.42962</v>
-      </c>
-      <c r="F2">
-        <v>0.29197000000000001</v>
-      </c>
-      <c r="G2">
-        <v>6.1260000000000002E-2</v>
       </c>
       <c r="H2">
         <v>0.33409</v>
@@ -834,25 +1182,25 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>17.50543</v>
+        <v>17.149339999999999</v>
       </c>
       <c r="C3">
-        <v>20.794350000000001</v>
+        <v>20.192340000000002</v>
       </c>
       <c r="D3">
-        <v>23.97664</v>
+        <v>23.83098</v>
       </c>
       <c r="E3">
-        <v>254.82164</v>
+        <v>26.571349999999999</v>
       </c>
       <c r="F3">
-        <v>26.85463</v>
+        <v>11.619719999999999</v>
       </c>
       <c r="G3">
-        <v>11.691409999999999</v>
+        <v>254.74134000000001</v>
       </c>
       <c r="H3">
-        <v>26.243580000000001</v>
+        <v>26.04006</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -869,13 +1217,13 @@
         <v>2.7063600000000001</v>
       </c>
       <c r="E4">
+        <v>3.4036499999999998</v>
+      </c>
+      <c r="F4">
+        <v>1.2703800000000001</v>
+      </c>
+      <c r="G4">
         <v>5.5827099999999996</v>
-      </c>
-      <c r="F4">
-        <v>3.4036499999999998</v>
-      </c>
-      <c r="G4">
-        <v>1.2703800000000001</v>
       </c>
       <c r="H4">
         <v>2.8518599999999998</v>
@@ -895,16 +1243,94 @@
         <v>12.45548</v>
       </c>
       <c r="E5">
+        <v>17.71959</v>
+      </c>
+      <c r="F5">
+        <v>6.2286000000000001</v>
+      </c>
+      <c r="G5">
         <v>28.29344</v>
-      </c>
-      <c r="F5">
-        <v>17.71959</v>
-      </c>
-      <c r="G5">
-        <v>6.2286000000000001</v>
       </c>
       <c r="H5">
         <v>0.54839000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>6.6100000000000004E-3</v>
+      </c>
+      <c r="C6">
+        <v>2.3500000000000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="E6">
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="F6">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="G6">
+        <v>5.0400000000000002E-3</v>
+      </c>
+      <c r="H6">
+        <v>7.6299999999999996E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>3.074E-2</v>
+      </c>
+      <c r="C7">
+        <v>9.1599999999999997E-3</v>
+      </c>
+      <c r="D7">
+        <v>1.7270000000000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.0189999999999999E-2</v>
+      </c>
+      <c r="F7">
+        <v>3.1199999999999999E-3</v>
+      </c>
+      <c r="G7">
+        <v>2.1940000000000001E-2</v>
+      </c>
+      <c r="H7">
+        <v>3.4040000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="C8">
+        <v>6.2E-4</v>
+      </c>
+      <c r="D8">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="E8">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="F8">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="G8">
+        <v>4.5399999999999998E-3</v>
+      </c>
+      <c r="H8">
+        <v>1.97E-3</v>
       </c>
     </row>
   </sheetData>
@@ -913,11 +1339,403 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D7F3AB-E5D5-4506-9172-2F123FF03079}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490D1D07-79E4-4043-9CC0-D29BB2B9D991}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1">
+        <v>4.6862362926810144E-7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1.6289403146425041E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>1.7090442691892322E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>1.3265535245538174E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>8.9789520175119461E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>9.9828243233683223E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>5.1698760598971223E-14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>1.983170385086544E-12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>1.2096664602664164E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1.6636544770085805E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>3.7423285443451844E-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>1.0446847155590058E-11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>3.7935746814927013E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>2.4882965588988002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>4.9315099590798394E-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.7039553845207639E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1427E0-5E14-489C-8976-4BF061EBF194}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1">
+        <v>1.5413234691091739E-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1.0087330004909483E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>8.0787264134562789E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>8.1664458581480694E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>2.9651680264271327E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>3.1020984303597577E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>2.6303641938598146E-12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>4.015477586302372E-11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>6.5104480046335985E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>6.9546481816626111E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>1.4902146185081871E-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>8.9903639113072612E-11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>1.1040587952367025E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>0.26812842439827289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>8.835067311702408E-9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.4005394041990032E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D87EA26-2F4C-41F6-A670-44A51EDAD26D}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,10 +1743,9 @@
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -948,13 +1765,13 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -962,151 +1779,467 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C2">
-        <v>0.22922999999999999</v>
+        <v>6.6100000000000004E-3</v>
       </c>
       <c r="D2">
-        <v>0.12232999999999999</v>
+        <v>2.3500000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>0.19161</v>
+        <v>3.2399999999999998E-3</v>
       </c>
       <c r="F2">
-        <v>0.42962</v>
+        <v>3.1800000000000001E-3</v>
       </c>
       <c r="G2">
-        <v>0.29197000000000001</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="H2">
-        <v>6.1260000000000002E-2</v>
+        <v>5.0400000000000002E-3</v>
       </c>
       <c r="I2">
-        <v>0.33409</v>
+        <v>7.6299999999999996E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>17.50543</v>
+        <v>0.22922999999999999</v>
       </c>
       <c r="D3">
-        <v>20.794350000000001</v>
+        <v>0.12232999999999999</v>
       </c>
       <c r="E3">
-        <v>23.97664</v>
+        <v>0.19161</v>
       </c>
       <c r="F3">
-        <v>254.82164</v>
+        <v>0.29197000000000001</v>
       </c>
       <c r="G3">
-        <v>26.85463</v>
+        <v>6.1260000000000002E-2</v>
       </c>
       <c r="H3">
-        <v>11.691409999999999</v>
+        <v>0.42962</v>
       </c>
       <c r="I3">
-        <v>26.243580000000001</v>
+        <v>0.33409</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>2.1358299999999999</v>
+        <v>30.23199</v>
       </c>
       <c r="D4">
-        <v>1.3577699999999999</v>
+        <v>68.526319999999998</v>
       </c>
       <c r="E4">
-        <v>2.7063600000000001</v>
+        <v>23.940429999999999</v>
       </c>
       <c r="F4">
-        <v>5.5827099999999996</v>
+        <v>91.096000000000004</v>
       </c>
       <c r="G4">
-        <v>3.4036499999999998</v>
+        <v>14.894819999999999</v>
       </c>
       <c r="H4">
-        <v>1.2703800000000001</v>
+        <v>21.119309999999999</v>
       </c>
       <c r="I4">
-        <v>2.8518599999999998</v>
+        <v>21.060860000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.8870900000000002E-5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.8318899999999997E-5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.8116800000000001E-5</v>
+      </c>
+      <c r="F5">
+        <v>1.2E-4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.3256499999999999E-5</v>
+      </c>
+      <c r="H5">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2.7176299999999999E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="D6">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="E6">
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="F6">
+        <v>5.8E-4</v>
+      </c>
+      <c r="G6">
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="H6">
+        <v>2.0699999999999998E-3</v>
+      </c>
+      <c r="I6">
+        <v>6.9300000000000004E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>3.074E-2</v>
+      </c>
+      <c r="D7">
+        <v>9.1599999999999997E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.7270000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.0189999999999999E-2</v>
+      </c>
+      <c r="G7">
+        <v>3.1199999999999999E-3</v>
+      </c>
+      <c r="H7">
+        <v>2.1940000000000001E-2</v>
+      </c>
+      <c r="I7">
+        <v>3.4040000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5.4173099999999998E-11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.4513899999999999E-11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.0164499999999998E-10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8.7577800000000006E-11</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7.3955499999999996E-11</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6.7477199999999995E-10</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5.6704700000000001E-11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.9525300000000001E-9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.6129299999999998E-9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.9403600000000002E-8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8.58463E-9</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6.5395500000000004E-10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2.9113200000000002E-8</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1.78144E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>1.3310000000000001E-2</v>
+      </c>
+      <c r="D10">
+        <v>9.3100000000000006E-3</v>
+      </c>
+      <c r="E10">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.661E-2</v>
+      </c>
+      <c r="G10">
+        <v>3.1570000000000001E-2</v>
+      </c>
+      <c r="H10">
+        <v>3.492E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.4239999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>17.149339999999999</v>
+      </c>
+      <c r="D11">
+        <v>20.192340000000002</v>
+      </c>
+      <c r="E11">
+        <v>23.83098</v>
+      </c>
+      <c r="F11">
+        <v>26.571349999999999</v>
+      </c>
+      <c r="G11">
+        <v>11.619719999999999</v>
+      </c>
+      <c r="H11">
+        <v>254.74134000000001</v>
+      </c>
+      <c r="I11">
+        <v>26.04006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.1308499999999999E-8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.4503799999999999E-8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.60624E-8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3.93936E-8</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.52591E-8</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8.1194599999999998E-8</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3.2857000000000001E-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.0489999999999997E-8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.5938099999999999E-8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.7607E-8</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.4466800000000001E-8</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3.6771600000000002E-9</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.9563699999999999E-8</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4.5890500000000003E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="D14">
+        <v>6.2E-4</v>
+      </c>
+      <c r="E14">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="F14">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="G14">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="H14">
+        <v>4.5399999999999998E-3</v>
+      </c>
+      <c r="I14">
+        <v>1.97E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>2.1358299999999999</v>
+      </c>
+      <c r="D15">
+        <v>1.3577699999999999</v>
+      </c>
+      <c r="E15">
+        <v>2.7063600000000001</v>
+      </c>
+      <c r="F15">
+        <v>3.4036499999999998</v>
+      </c>
+      <c r="G15">
+        <v>1.2703800000000001</v>
+      </c>
+      <c r="H15">
+        <v>5.5827099999999996</v>
+      </c>
+      <c r="I15">
+        <v>2.8518599999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5.04431E-7</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7.9268800000000004E-7</v>
+      </c>
+      <c r="E16" s="2">
+        <v>9.5481499999999994E-7</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4.9514399999999998E-7</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3.7629300000000002E-7</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.65928E-6</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4.9140699999999995E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="C17">
         <v>1.00482</v>
       </c>
-      <c r="D5">
+      <c r="D17">
         <v>11.877890000000001</v>
       </c>
-      <c r="E5">
+      <c r="E17">
         <v>12.45548</v>
       </c>
-      <c r="F5">
+      <c r="F17">
+        <v>17.71959</v>
+      </c>
+      <c r="G17">
+        <v>6.2286000000000001</v>
+      </c>
+      <c r="H17">
         <v>28.29344</v>
       </c>
-      <c r="G5">
-        <v>17.71959</v>
-      </c>
-      <c r="H5">
-        <v>6.2286000000000001</v>
-      </c>
-      <c r="I5">
+      <c r="I17">
         <v>0.54839000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pIRPgym/Blocks/InstanceGeneration/LCA indicators.xlsx
+++ b/pIRPgym/Blocks/InstanceGeneration/LCA indicators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_rojasa55_uniandes_edu_co/Documents/Escritorio/pIRPgym/pIRPgym/Blocks/InstanceGeneration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="8_{0559A1DF-3114-4080-916E-CC8E180C642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8596AD90-5D80-4B18-B8CA-ECAFB900E0CC}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="8_{0559A1DF-3114-4080-916E-CC8E180C642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71D64283-83C3-4895-A141-94617BBEDB3F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{966A59D5-22B3-4D76-89C6-37022AA61F13}"/>
   </bookViews>
@@ -175,13 +175,13 @@
     <t>kg Sb eq</t>
   </si>
   <si>
-    <t>acidification</t>
-  </si>
-  <si>
-    <t>eutrophication</t>
-  </si>
-  <si>
     <t>ozone</t>
+  </si>
+  <si>
+    <t>eutroph</t>
+  </si>
+  <si>
+    <t>acid</t>
   </si>
 </sst>
 </file>
@@ -190,11 +190,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000000000000000000"/>
-    <numFmt numFmtId="183" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="184" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="186" formatCode="0.000000000000000000"/>
-    <numFmt numFmtId="187" formatCode="0.00000000000000000000"/>
-    <numFmt numFmtId="188" formatCode="0.000000000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -229,11 +229,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,10 +249,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,9 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBFBBFB-5E52-436D-B1E8-DC7BF71AFF5E}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -697,28 +691,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="7">
-        <v>4.6862362926810144E-7</v>
+        <v>4.6862362926810148E-4</v>
       </c>
       <c r="C6" s="7">
-        <v>4.6862362926810144E-7</v>
+        <v>4.6862362926810148E-4</v>
       </c>
       <c r="D6" s="7">
-        <v>4.6862362926810144E-7</v>
+        <v>4.6862362926810148E-4</v>
       </c>
       <c r="E6" s="7">
-        <v>4.6862362926810144E-7</v>
+        <v>4.6862362926810148E-4</v>
       </c>
       <c r="F6" s="7">
-        <v>4.6862362926810144E-7</v>
+        <v>4.6862362926810148E-4</v>
       </c>
       <c r="G6" s="7">
-        <v>4.6862362926810144E-7</v>
+        <v>4.6862362926810148E-4</v>
       </c>
       <c r="H6" s="7">
-        <v>4.6862362926810144E-7</v>
+        <v>4.6862362926810148E-4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -726,51 +720,51 @@
         <v>45</v>
       </c>
       <c r="B7" s="7">
-        <v>9.9828243233683223E-7</v>
+        <v>9.9828243233683221E-4</v>
       </c>
       <c r="C7" s="7">
-        <v>9.9828243233683223E-7</v>
+        <v>9.9828243233683221E-4</v>
       </c>
       <c r="D7" s="7">
-        <v>9.9828243233683223E-7</v>
+        <v>9.9828243233683221E-4</v>
       </c>
       <c r="E7" s="7">
-        <v>9.9828243233683223E-7</v>
+        <v>9.9828243233683221E-4</v>
       </c>
       <c r="F7" s="7">
-        <v>9.9828243233683223E-7</v>
+        <v>9.9828243233683221E-4</v>
       </c>
       <c r="G7" s="7">
-        <v>9.9828243233683223E-7</v>
+        <v>9.9828243233683221E-4</v>
       </c>
       <c r="H7" s="7">
-        <v>9.9828243233683223E-7</v>
+        <v>9.9828243233683221E-4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="6">
-        <v>3.7935746814927013E-7</v>
+        <v>3.7935746814927014E-4</v>
       </c>
       <c r="C8" s="6">
-        <v>3.7935746814927013E-7</v>
+        <v>3.7935746814927014E-4</v>
       </c>
       <c r="D8" s="6">
-        <v>3.7935746814927013E-7</v>
+        <v>3.7935746814927014E-4</v>
       </c>
       <c r="E8" s="6">
-        <v>3.7935746814927013E-7</v>
+        <v>3.7935746814927014E-4</v>
       </c>
       <c r="F8" s="6">
-        <v>3.7935746814927013E-7</v>
+        <v>3.7935746814927014E-4</v>
       </c>
       <c r="G8" s="6">
-        <v>3.7935746814927013E-7</v>
+        <v>3.7935746814927014E-4</v>
       </c>
       <c r="H8" s="6">
-        <v>3.7935746814927013E-7</v>
+        <v>3.7935746814927014E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -888,9 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD37F98B-C618-4AB5-A72A-43BC79B5A72A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1031,28 +1023,28 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1">
-        <v>1.5413234691091739E-5</v>
+        <v>1.5413234691091737E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>1.5413234691091739E-5</v>
+        <v>1.5413234691091737E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>1.5413234691091739E-5</v>
+        <v>1.5413234691091737E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>1.5413234691091739E-5</v>
+        <v>1.5413234691091737E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>1.5413234691091739E-5</v>
+        <v>1.5413234691091737E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>1.5413234691091739E-5</v>
+        <v>1.5413234691091737E-2</v>
       </c>
       <c r="H6" s="1">
-        <v>1.5413234691091739E-5</v>
+        <v>1.5413234691091737E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1060,51 +1052,51 @@
         <v>45</v>
       </c>
       <c r="B7" s="1">
-        <v>3.1020984303597577E-5</v>
+        <v>3.1020984303597576E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>3.1020984303597577E-5</v>
+        <v>3.1020984303597576E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>3.1020984303597577E-5</v>
+        <v>3.1020984303597576E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>3.1020984303597577E-5</v>
+        <v>3.1020984303597576E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>3.1020984303597577E-5</v>
+        <v>3.1020984303597576E-2</v>
       </c>
       <c r="G7" s="1">
-        <v>3.1020984303597577E-5</v>
+        <v>3.1020984303597576E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>3.1020984303597577E-5</v>
+        <v>3.1020984303597576E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5">
-        <v>1.1040587952367025E-5</v>
+        <v>1.1040587952367027E-2</v>
       </c>
       <c r="C8" s="5">
-        <v>1.1040587952367025E-5</v>
+        <v>1.1040587952367027E-2</v>
       </c>
       <c r="D8" s="5">
-        <v>1.1040587952367025E-5</v>
+        <v>1.1040587952367027E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>1.1040587952367025E-5</v>
+        <v>1.1040587952367027E-2</v>
       </c>
       <c r="F8" s="5">
-        <v>1.1040587952367025E-5</v>
+        <v>1.1040587952367027E-2</v>
       </c>
       <c r="G8" s="5">
-        <v>1.1040587952367025E-5</v>
+        <v>1.1040587952367027E-2</v>
       </c>
       <c r="H8" s="5">
-        <v>1.1040587952367025E-5</v>
+        <v>1.1040587952367027E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1116,9 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDA677F-F964-4D91-A217-2E1493AF347E}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1257,28 +1247,28 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6">
-        <v>6.6100000000000004E-3</v>
+        <v>6.6100000000000012</v>
       </c>
       <c r="C6">
-        <v>2.3500000000000001E-3</v>
+        <v>2.35</v>
       </c>
       <c r="D6">
-        <v>3.2399999999999998E-3</v>
+        <v>3.2399999999999998</v>
       </c>
       <c r="E6">
-        <v>3.1800000000000001E-3</v>
+        <v>3.18</v>
       </c>
       <c r="F6">
-        <v>7.3999999999999999E-4</v>
+        <v>0.74</v>
       </c>
       <c r="G6">
-        <v>5.0400000000000002E-3</v>
+        <v>5.04</v>
       </c>
       <c r="H6">
-        <v>7.6299999999999996E-3</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1286,51 +1276,51 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>3.074E-2</v>
+        <v>30.74</v>
       </c>
       <c r="C7">
-        <v>9.1599999999999997E-3</v>
+        <v>9.16</v>
       </c>
       <c r="D7">
-        <v>1.7270000000000001E-2</v>
+        <v>17.270000000000003</v>
       </c>
       <c r="E7">
-        <v>1.0189999999999999E-2</v>
+        <v>10.19</v>
       </c>
       <c r="F7">
-        <v>3.1199999999999999E-3</v>
+        <v>3.12</v>
       </c>
       <c r="G7">
-        <v>2.1940000000000001E-2</v>
+        <v>21.94</v>
       </c>
       <c r="H7">
-        <v>3.4040000000000001E-2</v>
+        <v>34.040000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8">
-        <v>6.4000000000000005E-4</v>
+        <v>0.64</v>
       </c>
       <c r="C8">
-        <v>6.2E-4</v>
+        <v>0.62</v>
       </c>
       <c r="D8">
-        <v>9.6000000000000002E-4</v>
+        <v>0.96</v>
       </c>
       <c r="E8">
-        <v>1.5100000000000001E-3</v>
+        <v>1.5100000000000002</v>
       </c>
       <c r="F8">
-        <v>4.6000000000000001E-4</v>
+        <v>0.46000000000000008</v>
       </c>
       <c r="G8">
-        <v>4.5399999999999998E-3</v>
+        <v>4.54</v>
       </c>
       <c r="H8">
-        <v>1.97E-3</v>
+        <v>1.97</v>
       </c>
     </row>
   </sheetData>
@@ -1342,9 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490D1D07-79E4-4043-9CC0-D29BB2B9D991}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1538,9 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1427E0-5E14-489C-8976-4BF061EBF194}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1734,9 +1720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D87EA26-2F4C-41F6-A670-44A51EDAD26D}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/pIRPgym/Blocks/InstanceGeneration/LCA indicators.xlsx
+++ b/pIRPgym/Blocks/InstanceGeneration/LCA indicators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_rojasa55_uniandes_edu_co/Documents/Escritorio/pIRPgym/pIRPgym/Blocks/InstanceGeneration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="408" documentId="8_{0559A1DF-3114-4080-916E-CC8E180C642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71D64283-83C3-4895-A141-94617BBEDB3F}"/>
+  <xr:revisionPtr revIDLastSave="420" documentId="8_{0559A1DF-3114-4080-916E-CC8E180C642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C623173-D114-4FC2-B2F7-795CD0AAA65F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{966A59D5-22B3-4D76-89C6-37022AA61F13}"/>
   </bookViews>
@@ -225,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -234,6 +234,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,7 +551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBFBBFB-5E52-436D-B1E8-DC7BF71AFF5E}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -882,7 +885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD37F98B-C618-4AB5-A72A-43BC79B5A72A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1108,7 +1113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDA677F-F964-4D91-A217-2E1493AF347E}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1258,7 +1265,7 @@
       <c r="D6">
         <v>3.2399999999999998</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <v>3.18</v>
       </c>
       <c r="F6">
@@ -1720,7 +1727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D87EA26-2F4C-41F6-A670-44A51EDAD26D}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/pIRPgym/Blocks/InstanceGeneration/LCA indicators.xlsx
+++ b/pIRPgym/Blocks/InstanceGeneration/LCA indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_rojasa55_uniandes_edu_co/Documents/Escritorio/pIRPgym/pIRPgym/Blocks/InstanceGeneration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="420" documentId="8_{0559A1DF-3114-4080-916E-CC8E180C642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C623173-D114-4FC2-B2F7-795CD0AAA65F}"/>
+  <xr:revisionPtr revIDLastSave="428" documentId="8_{0559A1DF-3114-4080-916E-CC8E180C642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C29E7A39-2E18-4BE5-8406-EFC44DBDD702}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{966A59D5-22B3-4D76-89C6-37022AA61F13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{966A59D5-22B3-4D76-89C6-37022AA61F13}"/>
   </bookViews>
   <sheets>
     <sheet name="Transport" sheetId="2" r:id="rId1"/>
@@ -551,9 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBFBBFB-5E52-436D-B1E8-DC7BF71AFF5E}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -885,9 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD37F98B-C618-4AB5-A72A-43BC79B5A72A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1113,9 +1109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDA677F-F964-4D91-A217-2E1493AF347E}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1339,7 +1333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490D1D07-79E4-4043-9CC0-D29BB2B9D991}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
